--- a/Zeiten.xlsx
+++ b/Zeiten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melanie\Documents\Studium\6. Semester\LPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\SoSe 2017\Laborpraktikum\LPR-Identity-Provider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiten" sheetId="1" r:id="rId1"/>
     <sheet name="Daten" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t xml:space="preserve"> Projektzeiterfassung Identity Provider für E-Health</t>
   </si>
@@ -112,12 +112,15 @@
   </si>
   <si>
     <t>Teamtreffen</t>
+  </si>
+  <si>
+    <t>OpenID Connect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,6 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,14 +317,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -326,16 +329,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -659,18 +652,18 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,12 +671,12 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -696,86 +689,92 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="15" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <f>SUM(D6:D81)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -788,8 +787,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
@@ -798,8 +797,8 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
@@ -810,12 +809,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -830,92 +829,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="16"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
@@ -929,92 +928,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="16"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="16"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="15"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="16"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
@@ -1028,92 +1027,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="15"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="16"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="16"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="16"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="16"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
@@ -1127,98 +1126,98 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="15"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="13"/>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="16"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="15"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="16"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="10"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="11" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="15"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="13"/>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="16"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="12"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="15"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="16"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
@@ -1272,54 +1271,54 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>

--- a/Zeiten.xlsx
+++ b/Zeiten.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t xml:space="preserve"> Projektzeiterfassung Identity Provider für E-Health</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>OpenID Connect</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,15 +719,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="13">
         <f>SUM(D6:D81)</f>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1208,11 +1217,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B73:B75"/>
@@ -1228,6 +1232,11 @@
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
